--- a/H.Viajeros (residentes en España) en Madrid x procedencia y Mes.xlsx
+++ b/H.Viajeros (residentes en España) en Madrid x procedencia y Mes.xlsx
@@ -19,88 +19,88 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Total viajeros Nacionales</t>
+    <t>H Total Travelers Spain</t>
   </si>
   <si>
-    <t>viajeros Andalucía</t>
+    <t>H Travelers Andalucía</t>
   </si>
   <si>
-    <t>viajeros Aragón</t>
+    <t>H Travelers Aragón</t>
   </si>
   <si>
-    <t>viajeros Principado de Asturias</t>
+    <t>H Travelers Principado de Asturias</t>
   </si>
   <si>
-    <t>viajeros Illes Balears</t>
+    <t>H Travelers Illes Balears</t>
   </si>
   <si>
-    <t>viajeros Canarias</t>
+    <t>H Travelers Canarias</t>
   </si>
   <si>
-    <t>viajeros Cantabria</t>
+    <t>H Travelers Cantabria</t>
   </si>
   <si>
-    <t>viajeros Castilla-León</t>
+    <t>H Travelers Castilla-León</t>
   </si>
   <si>
-    <t>viajeros Castilla-La Mancha</t>
+    <t>H Travelers Castilla-La Mancha</t>
   </si>
   <si>
-    <t>viajeros Cataluña</t>
+    <t>H Travelers Cataluña</t>
   </si>
   <si>
-    <t>viajeros Comunitat Valenciana</t>
+    <t>H Travelers Comunitat Valenciana</t>
   </si>
   <si>
-    <t>viajeros Extremadura</t>
+    <t>H Travelers Extremadura</t>
   </si>
   <si>
-    <t>viajeros Galicia</t>
+    <t>H Travelers Galicia</t>
   </si>
   <si>
-    <t>viajeros Comunidad de Madrid</t>
+    <t>H Travelers Comunidad de Madrid</t>
   </si>
   <si>
-    <t>viajeros Región de Murcia</t>
+    <t>H Travelers Región de Murcia</t>
   </si>
   <si>
-    <t>viajeros Comunidad Foral de Navarra</t>
+    <t>H Travelers Comunidad Foral de Navarra</t>
   </si>
   <si>
-    <t>viajeros País Vasco</t>
+    <t>H Travelers País Vasco</t>
   </si>
   <si>
-    <t>viajeros La Rioja</t>
+    <t>H Travelers La Rioja</t>
   </si>
   <si>
-    <t>viajeros Ciudad Autónoma de Ceuta y Melilla</t>
+    <t>H Travelers Ceuta y Melilla</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>January</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>February</t>
   </si>
   <si>
-    <t>Marzo</t>
+    <t>March</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>April</t>
   </si>
   <si>
-    <t>Mayo</t>
+    <t>May</t>
   </si>
   <si>
     <t>238.11</t>
   </si>
   <si>
-    <t>Junio</t>
+    <t>June</t>
   </si>
   <si>
-    <t>Julio</t>
+    <t>July</t>
   </si>
   <si>
-    <t>Agosto</t>
+    <t>August</t>
   </si>
   <si>
     <t>4.61</t>
@@ -109,19 +109,19 @@
     <t>4.84</t>
   </si>
   <si>
-    <t>Septiembre</t>
+    <t>September</t>
   </si>
   <si>
-    <t>Octubre</t>
+    <t>October</t>
   </si>
   <si>
-    <t>Noviembre</t>
+    <t>November</t>
   </si>
   <si>
     <t>274.33</t>
   </si>
   <si>
-    <t>Diciembre</t>
+    <t>December</t>
   </si>
   <si>
     <t>3.69</t>
@@ -168,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <bottom style="thin">
@@ -220,12 +220,26 @@
       <right style="thin">
         <color rgb="FFDDDDDD"/>
       </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -247,13 +261,13 @@
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -265,16 +279,13 @@
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -704,7 +715,7 @@
       <c r="A4" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="8">
@@ -842,7 +853,7 @@
       <c r="A6" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -980,7 +991,7 @@
       <c r="A8" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="8">
@@ -1118,7 +1129,7 @@
       <c r="A10" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="8">
@@ -1256,7 +1267,7 @@
       <c r="A12" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1391,10 +1402,10 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="10">
@@ -1460,10 +1471,10 @@
       <c r="Y14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="8">
@@ -1529,10 +1540,10 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="10">
@@ -1598,10 +1609,10 @@
       <c r="Y16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="8">
@@ -1667,10 +1678,10 @@
       <c r="Y17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="10">
@@ -1736,10 +1747,10 @@
       <c r="Y18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="8">
@@ -1805,10 +1816,10 @@
       <c r="Y19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="10">
@@ -1874,10 +1885,10 @@
       <c r="Y20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="8">
@@ -1943,10 +1954,10 @@
       <c r="Y21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="10">
@@ -2012,10 +2023,10 @@
       <c r="Y22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="8">
@@ -2081,10 +2092,10 @@
       <c r="Y23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="10">
@@ -2150,10 +2161,10 @@
       <c r="Y24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="8">
@@ -2222,7 +2233,7 @@
       <c r="A26" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="8">
@@ -2360,7 +2371,7 @@
       <c r="A28" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="8">
@@ -2498,7 +2509,7 @@
       <c r="A30" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="8">
@@ -2636,7 +2647,7 @@
       <c r="A32" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="8">
@@ -2774,7 +2785,7 @@
       <c r="A34" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="8">
@@ -2912,7 +2923,7 @@
       <c r="A36" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="8">
@@ -3047,10 +3058,10 @@
       <c r="Y37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="13">
+      <c r="A38" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="10">
@@ -3116,10 +3127,10 @@
       <c r="Y38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="13">
+      <c r="A39" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="8">
@@ -3185,10 +3196,10 @@
       <c r="Y39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="13">
+      <c r="A40" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="10">
@@ -3254,10 +3265,10 @@
       <c r="Y40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="13">
+      <c r="A41" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="8">
@@ -3323,10 +3334,10 @@
       <c r="Y41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="13">
+      <c r="A42" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="10">
@@ -3392,10 +3403,10 @@
       <c r="Y42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="13">
+      <c r="A43" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="8">
@@ -3461,10 +3472,10 @@
       <c r="Y43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="13">
+      <c r="A44" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="10">
@@ -3530,10 +3541,10 @@
       <c r="Y44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="13">
+      <c r="A45" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="8">
@@ -3599,10 +3610,10 @@
       <c r="Y45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="13">
+      <c r="A46" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="10">
@@ -3668,10 +3679,10 @@
       <c r="Y46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="13">
+      <c r="A47" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="8">
@@ -3737,10 +3748,10 @@
       <c r="Y47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="13">
+      <c r="A48" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="10">
@@ -3806,10 +3817,10 @@
       <c r="Y48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="13">
+      <c r="A49" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="8">
@@ -3878,7 +3889,7 @@
       <c r="A50" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="8">
@@ -4016,7 +4027,7 @@
       <c r="A52" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="8">
@@ -4154,7 +4165,7 @@
       <c r="A54" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="8">
@@ -4292,7 +4303,7 @@
       <c r="A56" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="8">
@@ -4430,7 +4441,7 @@
       <c r="A58" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="8">
@@ -4568,7 +4579,7 @@
       <c r="A60" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C60" s="8">
@@ -4703,10 +4714,10 @@
       <c r="Y61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="10">
@@ -4772,10 +4783,10 @@
       <c r="Y62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="8">
@@ -4841,10 +4852,10 @@
       <c r="Y63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="13">
+      <c r="A64" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="10">
@@ -4910,10 +4921,10 @@
       <c r="Y64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="13">
+      <c r="A65" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="8">
@@ -4979,10 +4990,10 @@
       <c r="Y65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="13">
+      <c r="A66" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="10">
@@ -5048,10 +5059,10 @@
       <c r="Y66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="13">
+      <c r="A67" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C67" s="8">
@@ -5117,10 +5128,10 @@
       <c r="Y67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="13">
+      <c r="A68" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="10">
@@ -5186,10 +5197,10 @@
       <c r="Y68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="13">
+      <c r="A69" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="8">
@@ -5255,10 +5266,10 @@
       <c r="Y69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="13">
+      <c r="A70" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="10">
@@ -5324,10 +5335,10 @@
       <c r="Y70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="13">
+      <c r="A71" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C71" s="8">
@@ -5393,10 +5404,10 @@
       <c r="Y71" s="5"/>
     </row>
     <row r="72">
-      <c r="A72" s="13">
+      <c r="A72" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="10">
@@ -5462,10 +5473,10 @@
       <c r="Y72" s="5"/>
     </row>
     <row r="73">
-      <c r="A73" s="13">
+      <c r="A73" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="8">
@@ -5534,7 +5545,7 @@
       <c r="A74" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="8">
@@ -5672,7 +5683,7 @@
       <c r="A76" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="8">
@@ -5810,7 +5821,7 @@
       <c r="A78" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="8">
@@ -5948,7 +5959,7 @@
       <c r="A80" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="8">
@@ -6086,7 +6097,7 @@
       <c r="A82" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="8">
@@ -6224,7 +6235,7 @@
       <c r="A84" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C84" s="8">
@@ -6359,10 +6370,10 @@
       <c r="Y85" s="5"/>
     </row>
     <row r="86">
-      <c r="A86" s="13">
+      <c r="A86" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="8">
@@ -6428,7 +6439,7 @@
       <c r="Y86" s="5"/>
     </row>
     <row r="87">
-      <c r="A87" s="13">
+      <c r="A87" s="9">
         <v>2011.0</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -6497,10 +6508,10 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="13">
+      <c r="A88" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="8">
@@ -6566,7 +6577,7 @@
       <c r="Y88" s="5"/>
     </row>
     <row r="89">
-      <c r="A89" s="13">
+      <c r="A89" s="9">
         <v>2011.0</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -6635,10 +6646,10 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90">
-      <c r="A90" s="13">
+      <c r="A90" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="8">
@@ -6704,7 +6715,7 @@
       <c r="Y90" s="5"/>
     </row>
     <row r="91">
-      <c r="A91" s="13">
+      <c r="A91" s="9">
         <v>2011.0</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -6773,10 +6784,10 @@
       <c r="Y91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="13">
+      <c r="A92" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="8">
@@ -6842,7 +6853,7 @@
       <c r="Y92" s="5"/>
     </row>
     <row r="93">
-      <c r="A93" s="13">
+      <c r="A93" s="9">
         <v>2011.0</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -6911,10 +6922,10 @@
       <c r="Y93" s="5"/>
     </row>
     <row r="94">
-      <c r="A94" s="13">
+      <c r="A94" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="8">
@@ -6980,7 +6991,7 @@
       <c r="Y94" s="5"/>
     </row>
     <row r="95">
-      <c r="A95" s="13">
+      <c r="A95" s="9">
         <v>2011.0</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -7049,10 +7060,10 @@
       <c r="Y95" s="5"/>
     </row>
     <row r="96">
-      <c r="A96" s="13">
+      <c r="A96" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C96" s="8">
@@ -7118,7 +7129,7 @@
       <c r="Y96" s="5"/>
     </row>
     <row r="97">
-      <c r="A97" s="13">
+      <c r="A97" s="9">
         <v>2011.0</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -7190,7 +7201,7 @@
       <c r="A98" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C98" s="10">
@@ -7259,7 +7270,7 @@
       <c r="A99" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="8">
@@ -7328,7 +7339,7 @@
       <c r="A100" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C100" s="10">
@@ -7397,7 +7408,7 @@
       <c r="A101" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C101" s="8">
@@ -7466,7 +7477,7 @@
       <c r="A102" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C102" s="10">
@@ -7535,7 +7546,7 @@
       <c r="A103" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="8">
@@ -7604,7 +7615,7 @@
       <c r="A104" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="10">
@@ -7673,7 +7684,7 @@
       <c r="A105" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="8">
@@ -7742,7 +7753,7 @@
       <c r="A106" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C106" s="10">
@@ -7811,7 +7822,7 @@
       <c r="A107" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C107" s="8">
@@ -7880,7 +7891,7 @@
       <c r="A108" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C108" s="10">
@@ -7949,7 +7960,7 @@
       <c r="A109" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C109" s="8">
@@ -8015,10 +8026,10 @@
       <c r="Y109" s="5"/>
     </row>
     <row r="110">
-      <c r="A110" s="13">
+      <c r="A110" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C110" s="8">
@@ -8084,7 +8095,7 @@
       <c r="Y110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="13">
+      <c r="A111" s="9">
         <v>2013.0</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -8153,10 +8164,10 @@
       <c r="Y111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="13">
+      <c r="A112" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C112" s="8">
@@ -8222,7 +8233,7 @@
       <c r="Y112" s="5"/>
     </row>
     <row r="113">
-      <c r="A113" s="13">
+      <c r="A113" s="9">
         <v>2013.0</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -8291,10 +8302,10 @@
       <c r="Y113" s="5"/>
     </row>
     <row r="114">
-      <c r="A114" s="13">
+      <c r="A114" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C114" s="8">
@@ -8360,7 +8371,7 @@
       <c r="Y114" s="5"/>
     </row>
     <row r="115">
-      <c r="A115" s="13">
+      <c r="A115" s="9">
         <v>2013.0</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -8429,10 +8440,10 @@
       <c r="Y115" s="5"/>
     </row>
     <row r="116">
-      <c r="A116" s="13">
+      <c r="A116" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="8">
@@ -8498,7 +8509,7 @@
       <c r="Y116" s="5"/>
     </row>
     <row r="117">
-      <c r="A117" s="13">
+      <c r="A117" s="9">
         <v>2013.0</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -8567,10 +8578,10 @@
       <c r="Y117" s="5"/>
     </row>
     <row r="118">
-      <c r="A118" s="13">
+      <c r="A118" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C118" s="8">
@@ -8636,7 +8647,7 @@
       <c r="Y118" s="5"/>
     </row>
     <row r="119">
-      <c r="A119" s="13">
+      <c r="A119" s="9">
         <v>2013.0</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -8705,10 +8716,10 @@
       <c r="Y119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="13">
+      <c r="A120" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C120" s="8">
@@ -8774,7 +8785,7 @@
       <c r="Y120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="13">
+      <c r="A121" s="9">
         <v>2013.0</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -8846,7 +8857,7 @@
       <c r="A122" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C122" s="10">
@@ -8915,7 +8926,7 @@
       <c r="A123" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="8">
@@ -8984,7 +8995,7 @@
       <c r="A124" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C124" s="10">
@@ -9053,7 +9064,7 @@
       <c r="A125" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C125" s="8">
@@ -9122,7 +9133,7 @@
       <c r="A126" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C126" s="10">
@@ -9191,7 +9202,7 @@
       <c r="A127" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C127" s="8">
@@ -9260,7 +9271,7 @@
       <c r="A128" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="10">
@@ -9329,7 +9340,7 @@
       <c r="A129" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C129" s="8">
@@ -9398,7 +9409,7 @@
       <c r="A130" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C130" s="10">
@@ -9467,7 +9478,7 @@
       <c r="A131" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C131" s="8">
@@ -9536,7 +9547,7 @@
       <c r="A132" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C132" s="10">
@@ -9605,7 +9616,7 @@
       <c r="A133" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C133" s="8">
@@ -9671,10 +9682,10 @@
       <c r="Y133" s="5"/>
     </row>
     <row r="134">
-      <c r="A134" s="13">
+      <c r="A134" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C134" s="8">
@@ -9740,7 +9751,7 @@
       <c r="Y134" s="5"/>
     </row>
     <row r="135">
-      <c r="A135" s="13">
+      <c r="A135" s="9">
         <v>2015.0</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -9809,10 +9820,10 @@
       <c r="Y135" s="5"/>
     </row>
     <row r="136">
-      <c r="A136" s="13">
+      <c r="A136" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C136" s="8">
@@ -9878,7 +9889,7 @@
       <c r="Y136" s="5"/>
     </row>
     <row r="137">
-      <c r="A137" s="13">
+      <c r="A137" s="9">
         <v>2015.0</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -9947,10 +9958,10 @@
       <c r="Y137" s="5"/>
     </row>
     <row r="138">
-      <c r="A138" s="13">
+      <c r="A138" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C138" s="8">
@@ -10016,7 +10027,7 @@
       <c r="Y138" s="5"/>
     </row>
     <row r="139">
-      <c r="A139" s="13">
+      <c r="A139" s="9">
         <v>2015.0</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -10085,10 +10096,10 @@
       <c r="Y139" s="5"/>
     </row>
     <row r="140">
-      <c r="A140" s="13">
+      <c r="A140" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C140" s="8">
@@ -10154,7 +10165,7 @@
       <c r="Y140" s="5"/>
     </row>
     <row r="141">
-      <c r="A141" s="13">
+      <c r="A141" s="9">
         <v>2015.0</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -10223,10 +10234,10 @@
       <c r="Y141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="13">
+      <c r="A142" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="8">
@@ -10292,7 +10303,7 @@
       <c r="Y142" s="5"/>
     </row>
     <row r="143">
-      <c r="A143" s="13">
+      <c r="A143" s="9">
         <v>2015.0</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -10361,10 +10372,10 @@
       <c r="Y143" s="5"/>
     </row>
     <row r="144">
-      <c r="A144" s="13">
+      <c r="A144" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C144" s="8">
@@ -10430,7 +10441,7 @@
       <c r="Y144" s="5"/>
     </row>
     <row r="145">
-      <c r="A145" s="13">
+      <c r="A145" s="9">
         <v>2015.0</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -10502,7 +10513,7 @@
       <c r="A146" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C146" s="10">
@@ -10571,7 +10582,7 @@
       <c r="A147" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C147" s="8">
@@ -10640,7 +10651,7 @@
       <c r="A148" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C148" s="10">
@@ -10709,7 +10720,7 @@
       <c r="A149" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C149" s="8">
@@ -10778,7 +10789,7 @@
       <c r="A150" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C150" s="10">
@@ -10847,7 +10858,7 @@
       <c r="A151" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C151" s="8">
@@ -10916,7 +10927,7 @@
       <c r="A152" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C152" s="10">
@@ -10985,7 +10996,7 @@
       <c r="A153" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C153" s="8">
@@ -11054,7 +11065,7 @@
       <c r="A154" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C154" s="10">
@@ -11123,7 +11134,7 @@
       <c r="A155" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C155" s="8">
@@ -11192,7 +11203,7 @@
       <c r="A156" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C156" s="10">
@@ -11261,7 +11272,7 @@
       <c r="A157" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C157" s="8">
@@ -11327,10 +11338,10 @@
       <c r="Y157" s="5"/>
     </row>
     <row r="158">
-      <c r="A158" s="13">
+      <c r="A158" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="8">
@@ -11396,7 +11407,7 @@
       <c r="Y158" s="5"/>
     </row>
     <row r="159">
-      <c r="A159" s="13">
+      <c r="A159" s="9">
         <v>2017.0</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -11465,10 +11476,10 @@
       <c r="Y159" s="5"/>
     </row>
     <row r="160">
-      <c r="A160" s="13">
+      <c r="A160" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C160" s="8">
@@ -11534,7 +11545,7 @@
       <c r="Y160" s="5"/>
     </row>
     <row r="161">
-      <c r="A161" s="13">
+      <c r="A161" s="9">
         <v>2017.0</v>
       </c>
       <c r="B161" s="9" t="s">
@@ -11603,10 +11614,10 @@
       <c r="Y161" s="5"/>
     </row>
     <row r="162">
-      <c r="A162" s="13">
+      <c r="A162" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C162" s="8">
@@ -11672,7 +11683,7 @@
       <c r="Y162" s="5"/>
     </row>
     <row r="163">
-      <c r="A163" s="13">
+      <c r="A163" s="9">
         <v>2017.0</v>
       </c>
       <c r="B163" s="9" t="s">
@@ -11741,10 +11752,10 @@
       <c r="Y163" s="5"/>
     </row>
     <row r="164">
-      <c r="A164" s="13">
+      <c r="A164" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C164" s="8">
@@ -11810,7 +11821,7 @@
       <c r="Y164" s="5"/>
     </row>
     <row r="165">
-      <c r="A165" s="13">
+      <c r="A165" s="9">
         <v>2017.0</v>
       </c>
       <c r="B165" s="9" t="s">
@@ -11879,10 +11890,10 @@
       <c r="Y165" s="5"/>
     </row>
     <row r="166">
-      <c r="A166" s="13">
+      <c r="A166" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C166" s="8">
@@ -11948,7 +11959,7 @@
       <c r="Y166" s="5"/>
     </row>
     <row r="167">
-      <c r="A167" s="13">
+      <c r="A167" s="9">
         <v>2017.0</v>
       </c>
       <c r="B167" s="9" t="s">
@@ -12017,10 +12028,10 @@
       <c r="Y167" s="5"/>
     </row>
     <row r="168">
-      <c r="A168" s="13">
+      <c r="A168" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C168" s="8">
@@ -12086,7 +12097,7 @@
       <c r="Y168" s="5"/>
     </row>
     <row r="169">
-      <c r="A169" s="13">
+      <c r="A169" s="9">
         <v>2017.0</v>
       </c>
       <c r="B169" s="9" t="s">
@@ -12158,7 +12169,7 @@
       <c r="A170" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C170" s="10">
@@ -12227,7 +12238,7 @@
       <c r="A171" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C171" s="8">
@@ -12296,7 +12307,7 @@
       <c r="A172" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C172" s="10">
@@ -12365,7 +12376,7 @@
       <c r="A173" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C173" s="8">
@@ -12434,7 +12445,7 @@
       <c r="A174" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C174" s="10">
@@ -12503,7 +12514,7 @@
       <c r="A175" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C175" s="8">
@@ -12572,7 +12583,7 @@
       <c r="A176" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C176" s="10">
@@ -12641,7 +12652,7 @@
       <c r="A177" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C177" s="8">
@@ -12710,7 +12721,7 @@
       <c r="A178" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C178" s="10">
@@ -12779,7 +12790,7 @@
       <c r="A179" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="8">
@@ -12848,7 +12859,7 @@
       <c r="A180" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C180" s="10">
@@ -12917,7 +12928,7 @@
       <c r="A181" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C181" s="8">
@@ -12983,10 +12994,10 @@
       <c r="Y181" s="5"/>
     </row>
     <row r="182">
-      <c r="A182" s="13">
+      <c r="A182" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C182" s="8">
@@ -13052,7 +13063,7 @@
       <c r="Y182" s="5"/>
     </row>
     <row r="183">
-      <c r="A183" s="13">
+      <c r="A183" s="9">
         <v>2019.0</v>
       </c>
       <c r="B183" s="9" t="s">
@@ -13121,10 +13132,10 @@
       <c r="Y183" s="5"/>
     </row>
     <row r="184">
-      <c r="A184" s="13">
+      <c r="A184" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C184" s="8">
@@ -13190,7 +13201,7 @@
       <c r="Y184" s="5"/>
     </row>
     <row r="185">
-      <c r="A185" s="13">
+      <c r="A185" s="9">
         <v>2019.0</v>
       </c>
       <c r="B185" s="9" t="s">
@@ -13259,10 +13270,10 @@
       <c r="Y185" s="5"/>
     </row>
     <row r="186">
-      <c r="A186" s="13">
+      <c r="A186" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C186" s="8">
@@ -13328,7 +13339,7 @@
       <c r="Y186" s="5"/>
     </row>
     <row r="187">
-      <c r="A187" s="13">
+      <c r="A187" s="9">
         <v>2019.0</v>
       </c>
       <c r="B187" s="9" t="s">
@@ -13397,10 +13408,10 @@
       <c r="Y187" s="5"/>
     </row>
     <row r="188">
-      <c r="A188" s="13">
+      <c r="A188" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C188" s="8">
@@ -13466,7 +13477,7 @@
       <c r="Y188" s="5"/>
     </row>
     <row r="189">
-      <c r="A189" s="13">
+      <c r="A189" s="9">
         <v>2019.0</v>
       </c>
       <c r="B189" s="9" t="s">
@@ -13535,10 +13546,10 @@
       <c r="Y189" s="5"/>
     </row>
     <row r="190">
-      <c r="A190" s="13">
+      <c r="A190" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C190" s="8">
@@ -13604,7 +13615,7 @@
       <c r="Y190" s="5"/>
     </row>
     <row r="191">
-      <c r="A191" s="13">
+      <c r="A191" s="9">
         <v>2019.0</v>
       </c>
       <c r="B191" s="9" t="s">
@@ -13673,10 +13684,10 @@
       <c r="Y191" s="5"/>
     </row>
     <row r="192">
-      <c r="A192" s="13">
+      <c r="A192" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C192" s="8">
@@ -13742,7 +13753,7 @@
       <c r="Y192" s="5"/>
     </row>
     <row r="193">
-      <c r="A193" s="13">
+      <c r="A193" s="9">
         <v>2019.0</v>
       </c>
       <c r="B193" s="9" t="s">
@@ -13814,7 +13825,7 @@
       <c r="A194" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C194" s="10">
@@ -13883,7 +13894,7 @@
       <c r="A195" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C195" s="8">
@@ -13952,7 +13963,7 @@
       <c r="A196" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C196" s="10">
@@ -14021,7 +14032,7 @@
       <c r="A197" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C197" s="11">
@@ -14090,7 +14101,7 @@
       <c r="A198" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C198" s="12">
@@ -14159,7 +14170,7 @@
       <c r="A199" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C199" s="11">
@@ -14228,7 +14239,7 @@
       <c r="A200" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C200" s="10">
@@ -14297,7 +14308,7 @@
       <c r="A201" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C201" s="8">
@@ -14366,7 +14377,7 @@
       <c r="A202" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C202" s="10">
@@ -14435,7 +14446,7 @@
       <c r="A203" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C203" s="8">
@@ -14504,7 +14515,7 @@
       <c r="A204" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C204" s="10">
@@ -14573,7 +14584,7 @@
       <c r="A205" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C205" s="8">
@@ -14639,10 +14650,10 @@
       <c r="Y205" s="5"/>
     </row>
     <row r="206">
-      <c r="A206" s="13">
+      <c r="A206" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C206" s="8">
@@ -14708,7 +14719,7 @@
       <c r="Y206" s="5"/>
     </row>
     <row r="207">
-      <c r="A207" s="13">
+      <c r="A207" s="9">
         <v>2021.0</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -14777,10 +14788,10 @@
       <c r="Y207" s="5"/>
     </row>
     <row r="208">
-      <c r="A208" s="13">
+      <c r="A208" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C208" s="8">
@@ -14846,7 +14857,7 @@
       <c r="Y208" s="5"/>
     </row>
     <row r="209">
-      <c r="A209" s="13">
+      <c r="A209" s="9">
         <v>2021.0</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -14915,10 +14926,10 @@
       <c r="Y209" s="5"/>
     </row>
     <row r="210">
-      <c r="A210" s="13">
+      <c r="A210" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C210" s="8">
@@ -14984,7 +14995,7 @@
       <c r="Y210" s="5"/>
     </row>
     <row r="211">
-      <c r="A211" s="13">
+      <c r="A211" s="9">
         <v>2021.0</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -15053,10 +15064,10 @@
       <c r="Y211" s="5"/>
     </row>
     <row r="212">
-      <c r="A212" s="13">
+      <c r="A212" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C212" s="8">
@@ -15122,7 +15133,7 @@
       <c r="Y212" s="5"/>
     </row>
     <row r="213">
-      <c r="A213" s="13">
+      <c r="A213" s="9">
         <v>2021.0</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -15191,10 +15202,10 @@
       <c r="Y213" s="5"/>
     </row>
     <row r="214">
-      <c r="A214" s="13">
+      <c r="A214" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C214" s="8">
@@ -15260,7 +15271,7 @@
       <c r="Y214" s="5"/>
     </row>
     <row r="215">
-      <c r="A215" s="13">
+      <c r="A215" s="9">
         <v>2021.0</v>
       </c>
       <c r="B215" s="9" t="s">
@@ -15329,10 +15340,10 @@
       <c r="Y215" s="5"/>
     </row>
     <row r="216">
-      <c r="A216" s="13">
+      <c r="A216" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C216" s="8">
@@ -15398,7 +15409,7 @@
       <c r="Y216" s="5"/>
     </row>
     <row r="217">
-      <c r="A217" s="13">
+      <c r="A217" s="9">
         <v>2021.0</v>
       </c>
       <c r="B217" s="9" t="s">
@@ -15470,7 +15481,7 @@
       <c r="A218" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C218" s="10">
@@ -15539,7 +15550,7 @@
       <c r="A219" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C219" s="8">
@@ -15608,7 +15619,7 @@
       <c r="A220" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C220" s="10">
@@ -15677,7 +15688,7 @@
       <c r="A221" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C221" s="8">
@@ -15746,7 +15757,7 @@
       <c r="A222" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="10">
@@ -15815,7 +15826,7 @@
       <c r="A223" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C223" s="8">
@@ -15884,7 +15895,7 @@
       <c r="A224" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C224" s="10">
@@ -15953,7 +15964,7 @@
       <c r="A225" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C225" s="8">
@@ -16022,7 +16033,7 @@
       <c r="A226" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C226" s="10">
@@ -16091,7 +16102,7 @@
       <c r="A227" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C227" s="8">
@@ -16160,7 +16171,7 @@
       <c r="A228" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C228" s="10">
@@ -16229,7 +16240,7 @@
       <c r="A229" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C229" s="8">
@@ -16295,10 +16306,10 @@
       <c r="Y229" s="5"/>
     </row>
     <row r="230">
-      <c r="A230" s="13">
+      <c r="A230" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C230" s="8">
@@ -16364,67 +16375,67 @@
       <c r="Y230" s="5"/>
     </row>
     <row r="231">
-      <c r="A231" s="13">
+      <c r="A231" s="9">
         <v>2023.0</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C231" s="14">
+      <c r="C231" s="13">
         <v>0.0</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D231" s="14">
         <v>0.0</v>
       </c>
-      <c r="E231" s="14">
+      <c r="E231" s="13">
         <v>0.0</v>
       </c>
-      <c r="F231" s="14">
+      <c r="F231" s="13">
         <v>0.0</v>
       </c>
-      <c r="G231" s="14">
+      <c r="G231" s="13">
         <v>0.0</v>
       </c>
-      <c r="H231" s="14">
+      <c r="H231" s="13">
         <v>0.0</v>
       </c>
-      <c r="I231" s="14">
+      <c r="I231" s="13">
         <v>0.0</v>
       </c>
-      <c r="J231" s="14">
+      <c r="J231" s="13">
         <v>0.0</v>
       </c>
-      <c r="K231" s="14">
+      <c r="K231" s="13">
         <v>0.0</v>
       </c>
-      <c r="L231" s="14">
+      <c r="L231" s="13">
         <v>0.0</v>
       </c>
-      <c r="M231" s="14">
+      <c r="M231" s="13">
         <v>0.0</v>
       </c>
-      <c r="N231" s="14">
+      <c r="N231" s="13">
         <v>0.0</v>
       </c>
-      <c r="O231" s="14">
+      <c r="O231" s="13">
         <v>0.0</v>
       </c>
-      <c r="P231" s="14">
+      <c r="P231" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q231" s="14">
+      <c r="Q231" s="13">
         <v>0.0</v>
       </c>
-      <c r="R231" s="14">
+      <c r="R231" s="13">
         <v>0.0</v>
       </c>
-      <c r="S231" s="14">
+      <c r="S231" s="13">
         <v>0.0</v>
       </c>
-      <c r="T231" s="14">
+      <c r="T231" s="13">
         <v>0.0</v>
       </c>
-      <c r="U231" s="14">
+      <c r="U231" s="13">
         <v>0.0</v>
       </c>
       <c r="V231" s="5"/>
@@ -16433,67 +16444,67 @@
       <c r="Y231" s="5"/>
     </row>
     <row r="232">
-      <c r="A232" s="13">
+      <c r="A232" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C232" s="14">
+      <c r="C232" s="13">
         <v>0.0</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D232" s="14">
         <v>0.0</v>
       </c>
-      <c r="E232" s="14">
+      <c r="E232" s="13">
         <v>0.0</v>
       </c>
-      <c r="F232" s="14">
+      <c r="F232" s="13">
         <v>0.0</v>
       </c>
-      <c r="G232" s="14">
+      <c r="G232" s="13">
         <v>0.0</v>
       </c>
-      <c r="H232" s="14">
+      <c r="H232" s="13">
         <v>0.0</v>
       </c>
-      <c r="I232" s="14">
+      <c r="I232" s="13">
         <v>0.0</v>
       </c>
-      <c r="J232" s="14">
+      <c r="J232" s="13">
         <v>0.0</v>
       </c>
-      <c r="K232" s="14">
+      <c r="K232" s="13">
         <v>0.0</v>
       </c>
-      <c r="L232" s="14">
+      <c r="L232" s="13">
         <v>0.0</v>
       </c>
-      <c r="M232" s="14">
+      <c r="M232" s="13">
         <v>0.0</v>
       </c>
-      <c r="N232" s="14">
+      <c r="N232" s="13">
         <v>0.0</v>
       </c>
-      <c r="O232" s="14">
+      <c r="O232" s="13">
         <v>0.0</v>
       </c>
-      <c r="P232" s="14">
+      <c r="P232" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q232" s="14">
+      <c r="Q232" s="13">
         <v>0.0</v>
       </c>
-      <c r="R232" s="14">
+      <c r="R232" s="13">
         <v>0.0</v>
       </c>
-      <c r="S232" s="14">
+      <c r="S232" s="13">
         <v>0.0</v>
       </c>
-      <c r="T232" s="14">
+      <c r="T232" s="13">
         <v>0.0</v>
       </c>
-      <c r="U232" s="14">
+      <c r="U232" s="13">
         <v>0.0</v>
       </c>
       <c r="V232" s="5"/>
@@ -16502,67 +16513,67 @@
       <c r="Y232" s="5"/>
     </row>
     <row r="233">
-      <c r="A233" s="13">
+      <c r="A233" s="9">
         <v>2023.0</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C233" s="14">
+      <c r="C233" s="13">
         <v>0.0</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="14">
         <v>0.0</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E233" s="13">
         <v>0.0</v>
       </c>
-      <c r="F233" s="14">
+      <c r="F233" s="13">
         <v>0.0</v>
       </c>
-      <c r="G233" s="14">
+      <c r="G233" s="13">
         <v>0.0</v>
       </c>
-      <c r="H233" s="14">
+      <c r="H233" s="13">
         <v>0.0</v>
       </c>
-      <c r="I233" s="14">
+      <c r="I233" s="13">
         <v>0.0</v>
       </c>
-      <c r="J233" s="14">
+      <c r="J233" s="13">
         <v>0.0</v>
       </c>
-      <c r="K233" s="14">
+      <c r="K233" s="13">
         <v>0.0</v>
       </c>
-      <c r="L233" s="14">
+      <c r="L233" s="13">
         <v>0.0</v>
       </c>
-      <c r="M233" s="14">
+      <c r="M233" s="13">
         <v>0.0</v>
       </c>
-      <c r="N233" s="14">
+      <c r="N233" s="13">
         <v>0.0</v>
       </c>
-      <c r="O233" s="14">
+      <c r="O233" s="13">
         <v>0.0</v>
       </c>
-      <c r="P233" s="14">
+      <c r="P233" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q233" s="14">
+      <c r="Q233" s="13">
         <v>0.0</v>
       </c>
-      <c r="R233" s="14">
+      <c r="R233" s="13">
         <v>0.0</v>
       </c>
-      <c r="S233" s="14">
+      <c r="S233" s="13">
         <v>0.0</v>
       </c>
-      <c r="T233" s="14">
+      <c r="T233" s="13">
         <v>0.0</v>
       </c>
-      <c r="U233" s="14">
+      <c r="U233" s="13">
         <v>0.0</v>
       </c>
       <c r="V233" s="5"/>
@@ -16571,67 +16582,67 @@
       <c r="Y233" s="5"/>
     </row>
     <row r="234">
-      <c r="A234" s="13">
+      <c r="A234" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C234" s="14">
+      <c r="C234" s="13">
         <v>0.0</v>
       </c>
-      <c r="D234" s="15">
+      <c r="D234" s="14">
         <v>0.0</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E234" s="13">
         <v>0.0</v>
       </c>
-      <c r="F234" s="14">
+      <c r="F234" s="13">
         <v>0.0</v>
       </c>
-      <c r="G234" s="14">
+      <c r="G234" s="13">
         <v>0.0</v>
       </c>
-      <c r="H234" s="14">
+      <c r="H234" s="13">
         <v>0.0</v>
       </c>
-      <c r="I234" s="14">
+      <c r="I234" s="13">
         <v>0.0</v>
       </c>
-      <c r="J234" s="14">
+      <c r="J234" s="13">
         <v>0.0</v>
       </c>
-      <c r="K234" s="14">
+      <c r="K234" s="13">
         <v>0.0</v>
       </c>
-      <c r="L234" s="14">
+      <c r="L234" s="13">
         <v>0.0</v>
       </c>
-      <c r="M234" s="14">
+      <c r="M234" s="13">
         <v>0.0</v>
       </c>
-      <c r="N234" s="14">
+      <c r="N234" s="13">
         <v>0.0</v>
       </c>
-      <c r="O234" s="14">
+      <c r="O234" s="13">
         <v>0.0</v>
       </c>
-      <c r="P234" s="14">
+      <c r="P234" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q234" s="14">
+      <c r="Q234" s="13">
         <v>0.0</v>
       </c>
-      <c r="R234" s="14">
+      <c r="R234" s="13">
         <v>0.0</v>
       </c>
-      <c r="S234" s="14">
+      <c r="S234" s="13">
         <v>0.0</v>
       </c>
-      <c r="T234" s="14">
+      <c r="T234" s="13">
         <v>0.0</v>
       </c>
-      <c r="U234" s="14">
+      <c r="U234" s="13">
         <v>0.0</v>
       </c>
       <c r="V234" s="5"/>
@@ -16640,67 +16651,67 @@
       <c r="Y234" s="5"/>
     </row>
     <row r="235">
-      <c r="A235" s="13">
+      <c r="A235" s="9">
         <v>2023.0</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C235" s="14">
+      <c r="C235" s="13">
         <v>0.0</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D235" s="14">
         <v>0.0</v>
       </c>
-      <c r="E235" s="14">
+      <c r="E235" s="13">
         <v>0.0</v>
       </c>
-      <c r="F235" s="14">
+      <c r="F235" s="13">
         <v>0.0</v>
       </c>
-      <c r="G235" s="14">
+      <c r="G235" s="13">
         <v>0.0</v>
       </c>
-      <c r="H235" s="14">
+      <c r="H235" s="13">
         <v>0.0</v>
       </c>
-      <c r="I235" s="14">
+      <c r="I235" s="13">
         <v>0.0</v>
       </c>
-      <c r="J235" s="14">
+      <c r="J235" s="13">
         <v>0.0</v>
       </c>
-      <c r="K235" s="14">
+      <c r="K235" s="13">
         <v>0.0</v>
       </c>
-      <c r="L235" s="14">
+      <c r="L235" s="13">
         <v>0.0</v>
       </c>
-      <c r="M235" s="14">
+      <c r="M235" s="13">
         <v>0.0</v>
       </c>
-      <c r="N235" s="14">
+      <c r="N235" s="13">
         <v>0.0</v>
       </c>
-      <c r="O235" s="14">
+      <c r="O235" s="13">
         <v>0.0</v>
       </c>
-      <c r="P235" s="14">
+      <c r="P235" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q235" s="14">
+      <c r="Q235" s="13">
         <v>0.0</v>
       </c>
-      <c r="R235" s="14">
+      <c r="R235" s="13">
         <v>0.0</v>
       </c>
-      <c r="S235" s="14">
+      <c r="S235" s="13">
         <v>0.0</v>
       </c>
-      <c r="T235" s="14">
+      <c r="T235" s="13">
         <v>0.0</v>
       </c>
-      <c r="U235" s="14">
+      <c r="U235" s="13">
         <v>0.0</v>
       </c>
       <c r="V235" s="5"/>
@@ -16709,67 +16720,67 @@
       <c r="Y235" s="5"/>
     </row>
     <row r="236">
-      <c r="A236" s="13">
+      <c r="A236" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C236" s="14">
+      <c r="C236" s="13">
         <v>0.0</v>
       </c>
-      <c r="D236" s="15">
+      <c r="D236" s="14">
         <v>0.0</v>
       </c>
-      <c r="E236" s="14">
+      <c r="E236" s="13">
         <v>0.0</v>
       </c>
-      <c r="F236" s="14">
+      <c r="F236" s="13">
         <v>0.0</v>
       </c>
-      <c r="G236" s="14">
+      <c r="G236" s="13">
         <v>0.0</v>
       </c>
-      <c r="H236" s="14">
+      <c r="H236" s="13">
         <v>0.0</v>
       </c>
-      <c r="I236" s="14">
+      <c r="I236" s="13">
         <v>0.0</v>
       </c>
-      <c r="J236" s="14">
+      <c r="J236" s="13">
         <v>0.0</v>
       </c>
-      <c r="K236" s="14">
+      <c r="K236" s="13">
         <v>0.0</v>
       </c>
-      <c r="L236" s="14">
+      <c r="L236" s="13">
         <v>0.0</v>
       </c>
-      <c r="M236" s="14">
+      <c r="M236" s="13">
         <v>0.0</v>
       </c>
-      <c r="N236" s="14">
+      <c r="N236" s="13">
         <v>0.0</v>
       </c>
-      <c r="O236" s="14">
+      <c r="O236" s="13">
         <v>0.0</v>
       </c>
-      <c r="P236" s="14">
+      <c r="P236" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q236" s="14">
+      <c r="Q236" s="13">
         <v>0.0</v>
       </c>
-      <c r="R236" s="14">
+      <c r="R236" s="13">
         <v>0.0</v>
       </c>
-      <c r="S236" s="14">
+      <c r="S236" s="13">
         <v>0.0</v>
       </c>
-      <c r="T236" s="14">
+      <c r="T236" s="13">
         <v>0.0</v>
       </c>
-      <c r="U236" s="14">
+      <c r="U236" s="13">
         <v>0.0</v>
       </c>
       <c r="V236" s="5"/>
@@ -16778,67 +16789,67 @@
       <c r="Y236" s="5"/>
     </row>
     <row r="237">
-      <c r="A237" s="13">
+      <c r="A237" s="9">
         <v>2023.0</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C237" s="14">
+      <c r="C237" s="13">
         <v>0.0</v>
       </c>
-      <c r="D237" s="15">
+      <c r="D237" s="14">
         <v>0.0</v>
       </c>
-      <c r="E237" s="14">
+      <c r="E237" s="13">
         <v>0.0</v>
       </c>
-      <c r="F237" s="14">
+      <c r="F237" s="13">
         <v>0.0</v>
       </c>
-      <c r="G237" s="14">
+      <c r="G237" s="13">
         <v>0.0</v>
       </c>
-      <c r="H237" s="14">
+      <c r="H237" s="13">
         <v>0.0</v>
       </c>
-      <c r="I237" s="14">
+      <c r="I237" s="13">
         <v>0.0</v>
       </c>
-      <c r="J237" s="14">
+      <c r="J237" s="13">
         <v>0.0</v>
       </c>
-      <c r="K237" s="14">
+      <c r="K237" s="13">
         <v>0.0</v>
       </c>
-      <c r="L237" s="14">
+      <c r="L237" s="13">
         <v>0.0</v>
       </c>
-      <c r="M237" s="14">
+      <c r="M237" s="13">
         <v>0.0</v>
       </c>
-      <c r="N237" s="14">
+      <c r="N237" s="13">
         <v>0.0</v>
       </c>
-      <c r="O237" s="14">
+      <c r="O237" s="13">
         <v>0.0</v>
       </c>
-      <c r="P237" s="14">
+      <c r="P237" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q237" s="14">
+      <c r="Q237" s="13">
         <v>0.0</v>
       </c>
-      <c r="R237" s="14">
+      <c r="R237" s="13">
         <v>0.0</v>
       </c>
-      <c r="S237" s="14">
+      <c r="S237" s="13">
         <v>0.0</v>
       </c>
-      <c r="T237" s="14">
+      <c r="T237" s="13">
         <v>0.0</v>
       </c>
-      <c r="U237" s="14">
+      <c r="U237" s="13">
         <v>0.0</v>
       </c>
       <c r="V237" s="5"/>
@@ -16847,67 +16858,67 @@
       <c r="Y237" s="5"/>
     </row>
     <row r="238">
-      <c r="A238" s="13">
+      <c r="A238" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C238" s="14">
+      <c r="C238" s="13">
         <v>0.0</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="14">
         <v>0.0</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238" s="13">
         <v>0.0</v>
       </c>
-      <c r="F238" s="14">
+      <c r="F238" s="13">
         <v>0.0</v>
       </c>
-      <c r="G238" s="14">
+      <c r="G238" s="13">
         <v>0.0</v>
       </c>
-      <c r="H238" s="14">
+      <c r="H238" s="13">
         <v>0.0</v>
       </c>
-      <c r="I238" s="14">
+      <c r="I238" s="13">
         <v>0.0</v>
       </c>
-      <c r="J238" s="14">
+      <c r="J238" s="13">
         <v>0.0</v>
       </c>
-      <c r="K238" s="14">
+      <c r="K238" s="13">
         <v>0.0</v>
       </c>
-      <c r="L238" s="14">
+      <c r="L238" s="13">
         <v>0.0</v>
       </c>
-      <c r="M238" s="14">
+      <c r="M238" s="13">
         <v>0.0</v>
       </c>
-      <c r="N238" s="14">
+      <c r="N238" s="13">
         <v>0.0</v>
       </c>
-      <c r="O238" s="14">
+      <c r="O238" s="13">
         <v>0.0</v>
       </c>
-      <c r="P238" s="14">
+      <c r="P238" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q238" s="14">
+      <c r="Q238" s="13">
         <v>0.0</v>
       </c>
-      <c r="R238" s="14">
+      <c r="R238" s="13">
         <v>0.0</v>
       </c>
-      <c r="S238" s="14">
+      <c r="S238" s="13">
         <v>0.0</v>
       </c>
-      <c r="T238" s="14">
+      <c r="T238" s="13">
         <v>0.0</v>
       </c>
-      <c r="U238" s="14">
+      <c r="U238" s="13">
         <v>0.0</v>
       </c>
       <c r="V238" s="5"/>
@@ -16916,67 +16927,67 @@
       <c r="Y238" s="5"/>
     </row>
     <row r="239">
-      <c r="A239" s="13">
+      <c r="A239" s="9">
         <v>2023.0</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C239" s="14">
+      <c r="C239" s="13">
         <v>0.0</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="14">
         <v>0.0</v>
       </c>
-      <c r="E239" s="14">
+      <c r="E239" s="13">
         <v>0.0</v>
       </c>
-      <c r="F239" s="14">
+      <c r="F239" s="13">
         <v>0.0</v>
       </c>
-      <c r="G239" s="14">
+      <c r="G239" s="13">
         <v>0.0</v>
       </c>
-      <c r="H239" s="14">
+      <c r="H239" s="13">
         <v>0.0</v>
       </c>
-      <c r="I239" s="14">
+      <c r="I239" s="13">
         <v>0.0</v>
       </c>
-      <c r="J239" s="14">
+      <c r="J239" s="13">
         <v>0.0</v>
       </c>
-      <c r="K239" s="14">
+      <c r="K239" s="13">
         <v>0.0</v>
       </c>
-      <c r="L239" s="14">
+      <c r="L239" s="13">
         <v>0.0</v>
       </c>
-      <c r="M239" s="14">
+      <c r="M239" s="13">
         <v>0.0</v>
       </c>
-      <c r="N239" s="14">
+      <c r="N239" s="13">
         <v>0.0</v>
       </c>
-      <c r="O239" s="14">
+      <c r="O239" s="13">
         <v>0.0</v>
       </c>
-      <c r="P239" s="14">
+      <c r="P239" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q239" s="14">
+      <c r="Q239" s="13">
         <v>0.0</v>
       </c>
-      <c r="R239" s="14">
+      <c r="R239" s="13">
         <v>0.0</v>
       </c>
-      <c r="S239" s="14">
+      <c r="S239" s="13">
         <v>0.0</v>
       </c>
-      <c r="T239" s="14">
+      <c r="T239" s="13">
         <v>0.0</v>
       </c>
-      <c r="U239" s="14">
+      <c r="U239" s="13">
         <v>0.0</v>
       </c>
       <c r="V239" s="5"/>
@@ -16985,67 +16996,67 @@
       <c r="Y239" s="5"/>
     </row>
     <row r="240">
-      <c r="A240" s="13">
+      <c r="A240" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C240" s="14">
+      <c r="C240" s="13">
         <v>0.0</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="14">
         <v>0.0</v>
       </c>
-      <c r="E240" s="14">
+      <c r="E240" s="13">
         <v>0.0</v>
       </c>
-      <c r="F240" s="14">
+      <c r="F240" s="13">
         <v>0.0</v>
       </c>
-      <c r="G240" s="14">
+      <c r="G240" s="13">
         <v>0.0</v>
       </c>
-      <c r="H240" s="14">
+      <c r="H240" s="13">
         <v>0.0</v>
       </c>
-      <c r="I240" s="14">
+      <c r="I240" s="13">
         <v>0.0</v>
       </c>
-      <c r="J240" s="14">
+      <c r="J240" s="13">
         <v>0.0</v>
       </c>
-      <c r="K240" s="14">
+      <c r="K240" s="13">
         <v>0.0</v>
       </c>
-      <c r="L240" s="14">
+      <c r="L240" s="13">
         <v>0.0</v>
       </c>
-      <c r="M240" s="14">
+      <c r="M240" s="13">
         <v>0.0</v>
       </c>
-      <c r="N240" s="14">
+      <c r="N240" s="13">
         <v>0.0</v>
       </c>
-      <c r="O240" s="14">
+      <c r="O240" s="13">
         <v>0.0</v>
       </c>
-      <c r="P240" s="14">
+      <c r="P240" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q240" s="14">
+      <c r="Q240" s="13">
         <v>0.0</v>
       </c>
-      <c r="R240" s="14">
+      <c r="R240" s="13">
         <v>0.0</v>
       </c>
-      <c r="S240" s="14">
+      <c r="S240" s="13">
         <v>0.0</v>
       </c>
-      <c r="T240" s="14">
+      <c r="T240" s="13">
         <v>0.0</v>
       </c>
-      <c r="U240" s="14">
+      <c r="U240" s="13">
         <v>0.0</v>
       </c>
       <c r="V240" s="5"/>
@@ -17054,67 +17065,67 @@
       <c r="Y240" s="5"/>
     </row>
     <row r="241">
-      <c r="A241" s="16">
+      <c r="A241" s="15">
         <v>2023.0</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C241" s="14">
+      <c r="C241" s="13">
         <v>0.0</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="14">
         <v>0.0</v>
       </c>
-      <c r="E241" s="14">
+      <c r="E241" s="13">
         <v>0.0</v>
       </c>
-      <c r="F241" s="14">
+      <c r="F241" s="13">
         <v>0.0</v>
       </c>
-      <c r="G241" s="14">
+      <c r="G241" s="13">
         <v>0.0</v>
       </c>
-      <c r="H241" s="14">
+      <c r="H241" s="13">
         <v>0.0</v>
       </c>
-      <c r="I241" s="14">
+      <c r="I241" s="13">
         <v>0.0</v>
       </c>
-      <c r="J241" s="14">
+      <c r="J241" s="13">
         <v>0.0</v>
       </c>
-      <c r="K241" s="14">
+      <c r="K241" s="13">
         <v>0.0</v>
       </c>
-      <c r="L241" s="14">
+      <c r="L241" s="13">
         <v>0.0</v>
       </c>
-      <c r="M241" s="14">
+      <c r="M241" s="13">
         <v>0.0</v>
       </c>
-      <c r="N241" s="14">
+      <c r="N241" s="13">
         <v>0.0</v>
       </c>
-      <c r="O241" s="14">
+      <c r="O241" s="13">
         <v>0.0</v>
       </c>
-      <c r="P241" s="14">
+      <c r="P241" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q241" s="14">
+      <c r="Q241" s="13">
         <v>0.0</v>
       </c>
-      <c r="R241" s="14">
+      <c r="R241" s="13">
         <v>0.0</v>
       </c>
-      <c r="S241" s="14">
+      <c r="S241" s="13">
         <v>0.0</v>
       </c>
-      <c r="T241" s="14">
+      <c r="T241" s="13">
         <v>0.0</v>
       </c>
-      <c r="U241" s="14">
+      <c r="U241" s="13">
         <v>0.0</v>
       </c>
       <c r="V241" s="5"/>
